--- a/sigset/documentos/Seminario/flujofinal.xlsx
+++ b/sigset/documentos/Seminario/flujofinal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>Flujo de caja</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Utilidad antes de impuesto</t>
   </si>
   <si>
-    <t>Impuesto (%)</t>
-  </si>
-  <si>
     <t>Utilidad despues del impuesto</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Valor Libro</t>
   </si>
   <si>
-    <t>Inversion Ampliacion(a.cap)</t>
-  </si>
-  <si>
     <t>Valor de desecho</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Analista Programador</t>
   </si>
   <si>
-    <t>Programador</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gastos </t>
   </si>
   <si>
@@ -250,13 +241,100 @@
   </si>
   <si>
     <t>1 analista programador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista programador soporte </t>
+  </si>
+  <si>
+    <t>* 9 meses el primer año</t>
+  </si>
+  <si>
+    <t>Controles de cambio y mantenciones</t>
+  </si>
+  <si>
+    <t>Valor control de cambio</t>
+  </si>
+  <si>
+    <t>Valor Mantención y modificaciones</t>
+  </si>
+  <si>
+    <t>* se consideran 2 controles de cambio por empresa en el año</t>
+  </si>
+  <si>
+    <t>* se consideran 4 mantenciones y modificaciones en el año</t>
+  </si>
+  <si>
+    <t>Depreciación Activos</t>
+  </si>
+  <si>
+    <t>V. adquisición</t>
+  </si>
+  <si>
+    <t>Valor total</t>
+  </si>
+  <si>
+    <t>Vida util</t>
+  </si>
+  <si>
+    <t>V. residual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciación </t>
+  </si>
+  <si>
+    <t>computadores</t>
+  </si>
+  <si>
+    <t>impresora</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
+  <si>
+    <t>Mesa impresora</t>
+  </si>
+  <si>
+    <t>valor libro</t>
+  </si>
+  <si>
+    <t>falto depreciar</t>
+  </si>
+  <si>
+    <t>Impuesto (17%)</t>
+  </si>
+  <si>
+    <t>Año0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van </t>
+  </si>
+  <si>
+    <t>Tir</t>
+  </si>
+  <si>
+    <t>Td   %</t>
+  </si>
+  <si>
+    <t>Pri</t>
+  </si>
+  <si>
+    <t>se recupera la inversion al segundo año</t>
+  </si>
+  <si>
+    <t>Prestamos</t>
+  </si>
+  <si>
+    <t>total v. residual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +374,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -317,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -423,11 +515,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -437,11 +540,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -509,6 +608,42 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,924 +938,1479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
-        <f>$C$33*$C35</f>
+    <row r="4" spans="2:8">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3">
+        <f>$C$36*$C40</f>
+        <v>6000000</v>
+      </c>
+      <c r="E4" s="3">
+        <f>$C$36*$C41</f>
+        <v>8000000</v>
+      </c>
+      <c r="F4" s="3">
+        <f>$C$36*$C42</f>
+        <v>12000000</v>
+      </c>
+      <c r="G4" s="3">
+        <f>$C$36*$C43</f>
+        <v>20000000</v>
+      </c>
+      <c r="H4" s="3">
+        <f>$C$36*$C44</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="35" customFormat="1">
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="44">
+        <f>H$37*C40</f>
+        <v>3000000</v>
+      </c>
+      <c r="E5" s="44">
+        <f>H$37*C41</f>
+        <v>4000000</v>
+      </c>
+      <c r="F5" s="44">
+        <f>$H$37*C42</f>
+        <v>6000000</v>
+      </c>
+      <c r="G5" s="44">
+        <f>$H$37*C43</f>
+        <v>10000000</v>
+      </c>
+      <c r="H5" s="44">
+        <f>$H$37*C44</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5">
+        <f>SUM(D4:D6)</f>
         <v>9000000</v>
       </c>
-      <c r="D4" s="3">
-        <f>$C$33*$C36</f>
+      <c r="E7" s="47">
+        <f t="shared" ref="E7:H7" si="0">SUM(E4:E6)</f>
         <v>12000000</v>
       </c>
-      <c r="E4" s="3">
-        <f>$C$33*$C37</f>
-        <v>18000000</v>
-      </c>
-      <c r="F4" s="3">
-        <f>$C$33*$C38</f>
-        <v>30000000</v>
-      </c>
-      <c r="G4" s="3">
-        <f>$C$33*$C39</f>
-        <v>45000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <f>SUM(C4:C5)</f>
-        <v>9000000</v>
-      </c>
-      <c r="D6" s="51">
-        <f t="shared" ref="D6:G6" si="0">SUM(D4:D5)</f>
-        <v>12000000</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="F7" s="47">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
-      <c r="F6" s="51">
+      <c r="G7" s="47">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
-      <c r="G6" s="51">
+      <c r="H7" s="47">
         <f t="shared" si="0"/>
         <v>45000000</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="48">
-        <v>-3000000</v>
-      </c>
-      <c r="D7" s="48">
+      <c r="C8" s="8"/>
+      <c r="D8" s="44">
+        <v>-4500000</v>
+      </c>
+      <c r="E8" s="44">
         <v>-3600000</v>
       </c>
-      <c r="E7" s="48">
+      <c r="F8" s="44">
         <v>-3600000</v>
       </c>
-      <c r="F7" s="48">
+      <c r="G8" s="44">
         <v>-3600000</v>
       </c>
-      <c r="G7" s="48">
+      <c r="H8" s="44">
         <v>-3600000</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C9" s="6"/>
+      <c r="D9" s="44">
         <v>-2400000</v>
       </c>
-      <c r="D8" s="48">
+      <c r="E9" s="44">
         <v>-2400000</v>
       </c>
-      <c r="E8" s="48">
+      <c r="F9" s="44">
         <v>-2400000</v>
       </c>
-      <c r="F8" s="48">
+      <c r="G9" s="44">
         <v>-2400000</v>
       </c>
-      <c r="G8" s="48">
+      <c r="H9" s="44">
         <v>-2400000</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="12">
+    <row r="10" spans="2:8">
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8">
         <v>-3240000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E10" s="8">
         <v>-3240000</v>
       </c>
-      <c r="E9" s="12">
+      <c r="F10" s="8">
         <v>-3240000</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G10" s="8">
         <v>-3240000</v>
       </c>
-      <c r="G9" s="12">
+      <c r="H10" s="8">
         <v>-3240000</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="14" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="68">
-        <f>SUM(C7:C9)</f>
-        <v>-8640000</v>
-      </c>
-      <c r="D10" s="68">
-        <f>SUM(D7:D9)</f>
+      <c r="C11" s="10"/>
+      <c r="D11" s="64">
+        <f>SUM(D8:D10)</f>
+        <v>-10140000</v>
+      </c>
+      <c r="E11" s="64">
+        <f>SUM(E8:E10)</f>
         <v>-9240000</v>
       </c>
-      <c r="E10" s="68">
-        <f>SUM(E7:E9)</f>
+      <c r="F11" s="64">
+        <f>SUM(F8:F10)</f>
         <v>-9240000</v>
       </c>
-      <c r="F10" s="68">
-        <f>SUM(F7:F9)</f>
+      <c r="G11" s="64">
+        <f>SUM(G8:G10)</f>
         <v>-9240000</v>
       </c>
-      <c r="G10" s="68">
-        <f>SUM(G7:G9)</f>
+      <c r="H11" s="64">
+        <f>SUM(H8:H10)</f>
         <v>-9240000</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="68">
-        <f>SUM(C6+C10)</f>
-        <v>360000</v>
-      </c>
-      <c r="D11" s="68">
-        <f t="shared" ref="D11:G11" si="1">SUM(D6+D10)</f>
+      <c r="C12" s="10"/>
+      <c r="D12" s="64">
+        <f>SUM(D7+D11)</f>
+        <v>-1140000</v>
+      </c>
+      <c r="E12" s="64">
+        <f t="shared" ref="E12:H12" si="1">SUM(E7+E11)</f>
         <v>2760000</v>
       </c>
-      <c r="E11" s="68">
+      <c r="F12" s="64">
         <f t="shared" si="1"/>
         <v>8760000</v>
       </c>
-      <c r="F11" s="68">
+      <c r="G12" s="64">
         <f t="shared" si="1"/>
         <v>20760000</v>
       </c>
-      <c r="G11" s="68">
+      <c r="H12" s="64">
         <f t="shared" si="1"/>
         <v>35760000</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="73">
+        <v>-204000</v>
+      </c>
+      <c r="E13" s="73">
+        <v>-204000</v>
+      </c>
+      <c r="F13" s="73">
+        <v>-204000</v>
+      </c>
+      <c r="G13" s="73">
+        <v>-204000</v>
+      </c>
+      <c r="H13" s="73">
+        <v>-204000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44">
+        <f>-(J99)</f>
+        <v>-230999.99999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="64">
+        <f>SUM(D12:D15)</f>
+        <v>-1344000</v>
+      </c>
+      <c r="E16" s="64">
+        <f t="shared" ref="E16:H16" si="2">SUM(E12:E15)</f>
+        <v>2556000</v>
+      </c>
+      <c r="F16" s="64">
+        <f t="shared" si="2"/>
+        <v>8556000</v>
+      </c>
+      <c r="G16" s="64">
+        <f t="shared" si="2"/>
+        <v>20556000</v>
+      </c>
+      <c r="H16" s="64">
+        <f t="shared" si="2"/>
+        <v>35325000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="73">
+        <f>-(D16*0.17)</f>
+        <v>228480.00000000003</v>
+      </c>
+      <c r="E17" s="73">
+        <f t="shared" ref="E17:H17" si="3">-(E16*0.17)</f>
+        <v>-434520.00000000006</v>
+      </c>
+      <c r="F17" s="73">
+        <f t="shared" si="3"/>
+        <v>-1454520</v>
+      </c>
+      <c r="G17" s="73">
+        <f t="shared" si="3"/>
+        <v>-3494520.0000000005</v>
+      </c>
+      <c r="H17" s="73">
+        <f t="shared" si="3"/>
+        <v>-6005250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="14" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="64">
+        <f>SUM(D16:D17)</f>
+        <v>-1115520</v>
+      </c>
+      <c r="E18" s="64">
+        <f t="shared" ref="E18:H18" si="4">SUM(E16:E17)</f>
+        <v>2121480</v>
+      </c>
+      <c r="F18" s="64">
+        <f t="shared" si="4"/>
+        <v>7101480</v>
+      </c>
+      <c r="G18" s="64">
+        <f t="shared" si="4"/>
+        <v>17061480</v>
+      </c>
+      <c r="H18" s="64">
+        <f t="shared" si="4"/>
+        <v>29319750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="73">
+        <f>-SUM(D13)</f>
+        <v>204000</v>
+      </c>
+      <c r="E19" s="73">
+        <f t="shared" ref="E19:H19" si="5">-SUM(E13)</f>
+        <v>204000</v>
+      </c>
+      <c r="F19" s="73">
+        <f t="shared" si="5"/>
+        <v>204000</v>
+      </c>
+      <c r="G19" s="73">
+        <f t="shared" si="5"/>
+        <v>204000</v>
+      </c>
+      <c r="H19" s="73">
+        <f t="shared" si="5"/>
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="6" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="6" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44">
+        <f>-SUM(H15)</f>
+        <v>230999.99999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="6" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44">
+        <f>G100</f>
+        <v>695000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="6" t="s">
+      <c r="C23" s="8">
+        <f>-E82</f>
+        <v>-1390000</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="6" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="42" t="s">
+      <c r="C26" s="11">
+        <f>SUM(C19:C25)</f>
+        <v>-1390000</v>
+      </c>
+      <c r="D26" s="82">
+        <f>SUM(D18:D25)</f>
+        <v>-911520</v>
+      </c>
+      <c r="E26" s="82">
+        <f t="shared" ref="E26:H26" si="6">SUM(E18:E25)</f>
+        <v>2325480</v>
+      </c>
+      <c r="F26" s="82">
+        <f t="shared" si="6"/>
+        <v>7305480</v>
+      </c>
+      <c r="G26" s="82">
+        <f t="shared" si="6"/>
+        <v>17265480</v>
+      </c>
+      <c r="H26" s="82">
+        <f t="shared" si="6"/>
+        <v>30449750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" spans="2:8" s="35" customFormat="1">
+      <c r="B28" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="85">
+        <v>12</v>
+      </c>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+    </row>
+    <row r="29" spans="2:8" s="35" customFormat="1">
+      <c r="B29" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="86">
+        <f>NPV(C28/100,D26:H26)+C26</f>
+        <v>33100428.212560579</v>
+      </c>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+    </row>
+    <row r="30" spans="2:8" s="35" customFormat="1">
+      <c r="B30" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="87">
+        <f>IRR(C26:H26,C28/100)</f>
+        <v>1.426776438900726</v>
+      </c>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="36">
+        <f>SUM(D26:E26)/-C26</f>
+        <v>1.0172374100719423</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="44">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="35" customFormat="1">
+      <c r="B37" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="44">
+        <v>500000</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="39">
+        <f>C37*2</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="35" customFormat="1">
+      <c r="B38" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="44">
+        <v>100000</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="39">
+        <f>C38*4</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="48">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="1" t="s">
+      <c r="C40" s="12">
+        <v>3</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="59"/>
+      <c r="G40" s="13">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12">
+        <v>4</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="59"/>
+      <c r="G41" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="C42" s="12">
+        <v>6</v>
+      </c>
+      <c r="E42" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="55"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="61" t="s">
+      <c r="F42" s="61"/>
+      <c r="G42" s="13">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="16">
-        <v>3</v>
-      </c>
-      <c r="E35" s="62" t="s">
+      <c r="C43" s="12">
+        <v>10</v>
+      </c>
+      <c r="E43" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="17">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="16">
-        <v>4</v>
-      </c>
-      <c r="E36" s="62" t="s">
+      <c r="F43" s="63"/>
+      <c r="G43" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="12">
+        <v>15</v>
+      </c>
+      <c r="E44" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="53">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="16">
-        <v>6</v>
-      </c>
-      <c r="E37" s="64" t="s">
+      <c r="F44" s="41"/>
+      <c r="G44" s="36">
+        <v>2.8860000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="12">
+        <f>SUM(C40:C44)</f>
+        <v>38</v>
+      </c>
+      <c r="E45" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="17">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="16">
-        <v>10</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="19">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="16">
-        <v>15</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="40">
-        <v>2.8860000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="16">
-        <f>SUM(C35:C39)</f>
-        <v>38</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="19">
+      <c r="F45" s="41"/>
+      <c r="G45" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
-      <c r="G41" s="39"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="G42" s="20"/>
-      <c r="H42" s="52"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="22">
-        <v>3</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="52"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="20"/>
-      <c r="C45" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="52"/>
-    </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="52"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="52"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="21">
-        <v>1</v>
-      </c>
-      <c r="D48" s="30">
-        <v>600000</v>
-      </c>
-      <c r="E48" s="30">
-        <v>600000</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="52"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="18">
+        <v>3</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="48"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="16"/>
+      <c r="C50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="48"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="48"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1</v>
+      </c>
+      <c r="D53" s="26">
+        <v>600000</v>
+      </c>
+      <c r="E53" s="26">
+        <v>600000</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="48"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="44">
+        <f>SUM(E53:E53)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="44">
+        <f>E54*3</f>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="35" customFormat="1">
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="22">
+        <v>1</v>
+      </c>
+      <c r="D57" s="22">
+        <v>300000</v>
+      </c>
+      <c r="E57">
+        <f>D57*9</f>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="35" customFormat="1">
+      <c r="B58" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="27">
+        <f>E55+E57</f>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="35" customFormat="1">
+      <c r="B59" s="42"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="21">
+      <c r="D62" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="35"/>
+      <c r="B63" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="17">
         <v>1</v>
       </c>
-      <c r="D49" s="30">
-        <v>400000</v>
-      </c>
-      <c r="E49" s="30">
-        <v>400000</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="50" t="s">
+      <c r="D63" s="66">
+        <v>25000</v>
+      </c>
+      <c r="E63" s="45">
+        <f>D63*12</f>
+        <v>300000</v>
+      </c>
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="35"/>
+      <c r="B64" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="17">
+        <v>1</v>
+      </c>
+      <c r="D64" s="66">
+        <v>25000</v>
+      </c>
+      <c r="E64" s="45">
+        <f t="shared" ref="E64:E69" si="7">D64*12</f>
+        <v>300000</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="48">
-        <f>SUM(E48:E49)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="48">
-        <f>E50*3</f>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="47" t="s">
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="66">
+        <v>30000</v>
+      </c>
+      <c r="E65" s="44">
+        <f t="shared" si="7"/>
+        <v>360000</v>
+      </c>
+      <c r="F65" s="42"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" s="16" customFormat="1">
+      <c r="B66" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+      <c r="D66" s="66">
+        <v>60000</v>
+      </c>
+      <c r="E66" s="44">
+        <f t="shared" si="7"/>
+        <v>720000</v>
+      </c>
+      <c r="F66" s="42"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="17">
+        <v>1</v>
+      </c>
+      <c r="D67" s="66">
+        <v>100000</v>
+      </c>
+      <c r="E67" s="44">
+        <f t="shared" si="7"/>
+        <v>1200000</v>
+      </c>
+      <c r="F67" s="42"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="17">
+        <v>1</v>
+      </c>
+      <c r="D68" s="66">
+        <v>200000</v>
+      </c>
+      <c r="E68" s="45"/>
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="35"/>
+      <c r="B69" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="28">
+        <v>1</v>
+      </c>
+      <c r="D69" s="66">
+        <v>30000</v>
+      </c>
+      <c r="E69" s="45">
+        <f t="shared" si="7"/>
+        <v>360000</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="26">
+        <v>410000</v>
+      </c>
+      <c r="E70" s="45">
+        <f>SUM(E63:E69)</f>
+        <v>3240000</v>
+      </c>
+      <c r="F70" s="65"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="28">
+        <v>3</v>
+      </c>
+      <c r="D75" s="33">
+        <v>20000</v>
+      </c>
+      <c r="E75" s="33">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="17">
+        <v>5</v>
+      </c>
+      <c r="D76" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E76" s="33">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="17">
+        <v>1</v>
+      </c>
+      <c r="D77" s="26">
+        <v>30000</v>
+      </c>
+      <c r="E77" s="33">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="17">
+        <v>3</v>
+      </c>
+      <c r="D78" s="26">
+        <v>350000</v>
+      </c>
+      <c r="E78" s="33">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="17">
+        <v>1</v>
+      </c>
+      <c r="D79" s="26">
+        <v>100000</v>
+      </c>
+      <c r="E79" s="33">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="17">
+        <v>1</v>
+      </c>
+      <c r="D80" s="26">
+        <v>30000</v>
+      </c>
+      <c r="E80" s="33">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="17">
+        <v>1</v>
+      </c>
+      <c r="D81" s="26">
+        <v>20000</v>
+      </c>
+      <c r="E81" s="33">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="34">
+        <v>1390000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="16"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="39">
+        <v>300000</v>
+      </c>
+      <c r="D88" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="44"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="39"/>
-      <c r="B56" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="21">
+      <c r="E88" s="39">
+        <f>C88*12</f>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="I89" s="40"/>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="G90" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="I90" s="40"/>
+    </row>
+    <row r="91" spans="2:11" s="39" customFormat="1">
+      <c r="B91" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I91" s="79"/>
+      <c r="J91" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" s="39" customFormat="1">
+      <c r="B92" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="70">
+        <v>3</v>
+      </c>
+      <c r="D92" s="44">
+        <v>350000</v>
+      </c>
+      <c r="E92" s="70">
+        <f>C92*D92</f>
+        <v>1050000</v>
+      </c>
+      <c r="F92" s="70">
+        <v>6</v>
+      </c>
+      <c r="G92" s="70">
+        <f>E92*0.1</f>
+        <v>105000</v>
+      </c>
+      <c r="H92" s="75">
+        <f>SUM((E92-G92)/F92)</f>
+        <v>157500</v>
+      </c>
+      <c r="I92" s="78"/>
+      <c r="J92" s="76">
+        <f>H92*K92</f>
+        <v>157500</v>
+      </c>
+      <c r="K92" s="44">
         <v>1</v>
       </c>
-      <c r="D56" s="70">
-        <v>25000</v>
-      </c>
-      <c r="E56" s="49">
-        <f>D56*12</f>
-        <v>300000</v>
-      </c>
-      <c r="F56" s="46"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="39"/>
-      <c r="B57" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="21">
+    </row>
+    <row r="93" spans="2:11" s="39" customFormat="1">
+      <c r="B93" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="70">
         <v>1</v>
       </c>
-      <c r="D57" s="70">
-        <v>25000</v>
-      </c>
-      <c r="E57" s="49">
-        <f t="shared" ref="E57:E62" si="2">D57*12</f>
-        <v>300000</v>
-      </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="21">
+      <c r="D93" s="44">
+        <v>100000</v>
+      </c>
+      <c r="E93" s="70">
+        <f t="shared" ref="E93:E98" si="8">C93*D93</f>
+        <v>100000</v>
+      </c>
+      <c r="F93" s="70">
+        <v>6</v>
+      </c>
+      <c r="G93" s="70">
+        <f t="shared" ref="G93:G98" si="9">E93*0.1</f>
+        <v>10000</v>
+      </c>
+      <c r="H93" s="75">
+        <f t="shared" ref="H93:H98" si="10">SUM((E93-G93)/F93)</f>
+        <v>15000</v>
+      </c>
+      <c r="I93" s="78"/>
+      <c r="J93" s="76">
+        <f>H93*K93</f>
+        <v>15000</v>
+      </c>
+      <c r="K93" s="44">
         <v>1</v>
       </c>
-      <c r="D58" s="70">
+    </row>
+    <row r="94" spans="2:11" s="39" customFormat="1">
+      <c r="B94" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="70">
+        <v>1</v>
+      </c>
+      <c r="D94" s="44">
         <v>30000</v>
       </c>
-      <c r="E58" s="48">
-        <f t="shared" si="2"/>
-        <v>360000</v>
-      </c>
-      <c r="F58" s="46"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:8" s="20" customFormat="1">
-      <c r="B59" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="21">
+      <c r="E94" s="70">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="F94" s="70">
+        <v>6</v>
+      </c>
+      <c r="G94" s="70">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="H94" s="75">
+        <f t="shared" si="10"/>
+        <v>4500</v>
+      </c>
+      <c r="I94" s="78"/>
+      <c r="J94" s="76">
+        <f>H94*K94</f>
+        <v>4500</v>
+      </c>
+      <c r="K94" s="44">
         <v>1</v>
       </c>
-      <c r="D59" s="70">
+    </row>
+    <row r="95" spans="2:11" s="39" customFormat="1">
+      <c r="B95" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="70">
+        <v>3</v>
+      </c>
+      <c r="D95" s="45">
+        <v>20000</v>
+      </c>
+      <c r="E95" s="70">
+        <f t="shared" si="8"/>
         <v>60000</v>
       </c>
-      <c r="E59" s="48">
-        <f t="shared" si="2"/>
-        <v>720000</v>
-      </c>
-      <c r="F59" s="46"/>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="21">
+      <c r="F95" s="70">
+        <v>7</v>
+      </c>
+      <c r="G95" s="70">
+        <f t="shared" si="9"/>
+        <v>6000</v>
+      </c>
+      <c r="H95" s="75">
+        <f t="shared" si="10"/>
+        <v>7714.2857142857147</v>
+      </c>
+      <c r="I95" s="78"/>
+      <c r="J95" s="76">
+        <f>H95*K95</f>
+        <v>15428.571428571429</v>
+      </c>
+      <c r="K95" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" s="39" customFormat="1">
+      <c r="B96" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="70">
+        <v>5</v>
+      </c>
+      <c r="D96" s="44">
+        <v>20000</v>
+      </c>
+      <c r="E96" s="70">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="F96" s="70">
+        <v>7</v>
+      </c>
+      <c r="G96" s="70">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="H96" s="75">
+        <f t="shared" si="10"/>
+        <v>12857.142857142857</v>
+      </c>
+      <c r="I96" s="78"/>
+      <c r="J96" s="76">
+        <f>H96*K96</f>
+        <v>25714.285714285714</v>
+      </c>
+      <c r="K96" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" s="39" customFormat="1">
+      <c r="B97" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="70">
         <v>1</v>
       </c>
-      <c r="D60" s="70">
-        <v>100000</v>
-      </c>
-      <c r="E60" s="48">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="F60" s="46"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="21">
+      <c r="D97" s="44">
+        <v>30000</v>
+      </c>
+      <c r="E97" s="70">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="F97" s="70">
+        <v>7</v>
+      </c>
+      <c r="G97" s="70">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="H97" s="75">
+        <f t="shared" si="10"/>
+        <v>3857.1428571428573</v>
+      </c>
+      <c r="I97" s="78"/>
+      <c r="J97" s="76">
+        <f>H97*K97</f>
+        <v>7714.2857142857147</v>
+      </c>
+      <c r="K97" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" s="39" customFormat="1">
+      <c r="B98" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="70">
         <v>1</v>
       </c>
-      <c r="D61" s="70">
-        <v>200000</v>
-      </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="46"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="39"/>
-      <c r="B62" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="32">
-        <v>1</v>
-      </c>
-      <c r="D62" s="70">
-        <v>30000</v>
-      </c>
-      <c r="E62" s="49">
-        <f t="shared" si="2"/>
-        <v>360000</v>
-      </c>
-      <c r="F62" s="46"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="30">
-        <v>410000</v>
-      </c>
-      <c r="E63" s="49">
-        <f>SUM(E56:E62)</f>
-        <v>3240000</v>
-      </c>
-      <c r="F63" s="69"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="20"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="32">
-        <v>3</v>
-      </c>
-      <c r="D68" s="37">
+      <c r="D98" s="44">
         <v>20000</v>
       </c>
-      <c r="E68" s="37">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="21">
-        <v>5</v>
-      </c>
-      <c r="D69" s="30">
+      <c r="E98" s="70">
+        <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="E69" s="37">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="21">
-        <v>1</v>
-      </c>
-      <c r="D70" s="30">
-        <v>30000</v>
-      </c>
-      <c r="E70" s="37">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="21">
-        <v>3</v>
-      </c>
-      <c r="D71" s="30">
-        <v>350000</v>
-      </c>
-      <c r="E71" s="37">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="21">
-        <v>1</v>
-      </c>
-      <c r="D72" s="30">
-        <v>100000</v>
-      </c>
-      <c r="E72" s="37">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="21">
-        <v>1</v>
-      </c>
-      <c r="D73" s="30">
-        <v>30000</v>
-      </c>
-      <c r="E73" s="37">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="21">
-        <v>1</v>
-      </c>
-      <c r="D74" s="30">
-        <v>20000</v>
-      </c>
-      <c r="E74" s="37">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="38">
-        <v>1390000</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="20"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="57"/>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81">
-        <v>300000</v>
-      </c>
-      <c r="D81" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E81" s="43">
-        <f>C81*12</f>
-        <v>3600000</v>
+      <c r="F98" s="70">
+        <v>7</v>
+      </c>
+      <c r="G98" s="70">
+        <f t="shared" si="9"/>
+        <v>2000</v>
+      </c>
+      <c r="H98" s="75">
+        <f t="shared" si="10"/>
+        <v>2571.4285714285716</v>
+      </c>
+      <c r="I98" s="78"/>
+      <c r="J98" s="76">
+        <f>H98*K98</f>
+        <v>5142.8571428571431</v>
+      </c>
+      <c r="K98" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="G99" s="39">
+        <f>SUM(G92:G98)</f>
+        <v>139000</v>
+      </c>
+      <c r="H99" s="72">
+        <f>SUM(H92:H98)</f>
+        <v>204000.00000000003</v>
+      </c>
+      <c r="I99" s="77"/>
+      <c r="J99" s="39">
+        <f>SUM(J92:J98)</f>
+        <v>230999.99999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="F100" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" s="88">
+        <f>G99*5</f>
+        <v>695000</v>
+      </c>
+      <c r="I100" s="40"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/sigset/documentos/Seminario/flujofinal.xlsx
+++ b/sigset/documentos/Seminario/flujofinal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
   <si>
     <t>Flujo de caja</t>
   </si>
@@ -321,10 +321,82 @@
     <t>se recupera la inversion al segundo año</t>
   </si>
   <si>
-    <t>Prestamos</t>
-  </si>
-  <si>
     <t>total v. residual</t>
+  </si>
+  <si>
+    <t>Capital de Trabajo</t>
+  </si>
+  <si>
+    <t>CONDICIONES DE PAGO</t>
+  </si>
+  <si>
+    <t>30, 60, 90</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE PAGOS</t>
+  </si>
+  <si>
+    <t>PAGO MENSUAL</t>
+  </si>
+  <si>
+    <t>CUOTAS (3)</t>
+  </si>
+  <si>
+    <t>MES 1</t>
+  </si>
+  <si>
+    <t>MES 2</t>
+  </si>
+  <si>
+    <t>MES 3</t>
+  </si>
+  <si>
+    <t>MES 4</t>
+  </si>
+  <si>
+    <t>MES 5</t>
+  </si>
+  <si>
+    <t>MES 6</t>
+  </si>
+  <si>
+    <t>MES 7</t>
+  </si>
+  <si>
+    <t>MES 8</t>
+  </si>
+  <si>
+    <t>MES 9</t>
+  </si>
+  <si>
+    <t>MES 10</t>
+  </si>
+  <si>
+    <t>MES 11</t>
+  </si>
+  <si>
+    <t>MES 12</t>
+  </si>
+  <si>
+    <t>Vendo</t>
+  </si>
+  <si>
+    <t>Egreso Año 1</t>
+  </si>
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Pago Mensual</t>
+  </si>
+  <si>
+    <t>Egresos Meses</t>
+  </si>
+  <si>
+    <t>Saldo</t>
   </si>
 </sst>
 </file>
@@ -334,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +460,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -409,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -526,11 +613,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -644,6 +916,38 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1397,7 +1701,10 @@
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <f>-C23*(C27/100)</f>
+        <v>972999.99999999988</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
@@ -1421,7 +1728,7 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C19:C25)</f>
-        <v>-1390000</v>
+        <v>-417000.00000000012</v>
       </c>
       <c r="D26" s="82">
         <f>SUM(D18:D25)</f>
@@ -1446,7 +1753,9 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="89">
+        <v>70</v>
+      </c>
       <c r="D27" s="55"/>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
@@ -1472,7 +1781,7 @@
       </c>
       <c r="C29" s="86">
         <f>NPV(C28/100,D26:H26)+C26</f>
-        <v>33100428.212560579</v>
+        <v>34073428.212560579</v>
       </c>
       <c r="D29" s="83"/>
       <c r="E29" s="84"/>
@@ -1486,7 +1795,7 @@
       </c>
       <c r="C30" s="87">
         <f>IRR(C26:H26,C28/100)</f>
-        <v>1.426776438900726</v>
+        <v>2.205927699197106</v>
       </c>
       <c r="D30" s="83"/>
       <c r="E30" s="84"/>
@@ -1500,7 +1809,7 @@
       </c>
       <c r="C31" s="36">
         <f>SUM(D26:E26)/-C26</f>
-        <v>1.0172374100719423</v>
+        <v>3.3907913669064738</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>100</v>
@@ -2172,7 +2481,7 @@
       </c>
       <c r="I92" s="78"/>
       <c r="J92" s="76">
-        <f>H92*K92</f>
+        <f t="shared" ref="J92:J98" si="8">H92*K92</f>
         <v>157500</v>
       </c>
       <c r="K92" s="44">
@@ -2190,23 +2499,23 @@
         <v>100000</v>
       </c>
       <c r="E93" s="70">
-        <f t="shared" ref="E93:E98" si="8">C93*D93</f>
+        <f t="shared" ref="E93:E98" si="9">C93*D93</f>
         <v>100000</v>
       </c>
       <c r="F93" s="70">
         <v>6</v>
       </c>
       <c r="G93" s="70">
-        <f t="shared" ref="G93:G98" si="9">E93*0.1</f>
+        <f t="shared" ref="G93:G98" si="10">E93*0.1</f>
         <v>10000</v>
       </c>
       <c r="H93" s="75">
-        <f t="shared" ref="H93:H98" si="10">SUM((E93-G93)/F93)</f>
+        <f t="shared" ref="H93:H98" si="11">SUM((E93-G93)/F93)</f>
         <v>15000</v>
       </c>
       <c r="I93" s="78"/>
       <c r="J93" s="76">
-        <f>H93*K93</f>
+        <f t="shared" si="8"/>
         <v>15000</v>
       </c>
       <c r="K93" s="44">
@@ -2224,23 +2533,23 @@
         <v>30000</v>
       </c>
       <c r="E94" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="F94" s="70">
         <v>6</v>
       </c>
       <c r="G94" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
       <c r="H94" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4500</v>
       </c>
       <c r="I94" s="78"/>
       <c r="J94" s="76">
-        <f>H94*K94</f>
+        <f t="shared" si="8"/>
         <v>4500</v>
       </c>
       <c r="K94" s="44">
@@ -2258,23 +2567,23 @@
         <v>20000</v>
       </c>
       <c r="E95" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60000</v>
       </c>
       <c r="F95" s="70">
         <v>7</v>
       </c>
       <c r="G95" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6000</v>
       </c>
       <c r="H95" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7714.2857142857147</v>
       </c>
       <c r="I95" s="78"/>
       <c r="J95" s="76">
-        <f>H95*K95</f>
+        <f t="shared" si="8"/>
         <v>15428.571428571429</v>
       </c>
       <c r="K95" s="44">
@@ -2292,30 +2601,30 @@
         <v>20000</v>
       </c>
       <c r="E96" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
       <c r="F96" s="70">
         <v>7</v>
       </c>
       <c r="G96" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="H96" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12857.142857142857</v>
       </c>
       <c r="I96" s="78"/>
       <c r="J96" s="76">
-        <f>H96*K96</f>
+        <f t="shared" si="8"/>
         <v>25714.285714285714</v>
       </c>
       <c r="K96" s="44">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:11" s="39" customFormat="1">
+    <row r="97" spans="2:14" s="39" customFormat="1">
       <c r="B97" s="44" t="s">
         <v>55</v>
       </c>
@@ -2326,30 +2635,30 @@
         <v>30000</v>
       </c>
       <c r="E97" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="F97" s="70">
         <v>7</v>
       </c>
       <c r="G97" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
       <c r="H97" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3857.1428571428573</v>
       </c>
       <c r="I97" s="78"/>
       <c r="J97" s="76">
-        <f>H97*K97</f>
+        <f t="shared" si="8"/>
         <v>7714.2857142857147</v>
       </c>
       <c r="K97" s="44">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:11" s="39" customFormat="1">
+    <row r="98" spans="2:14" s="39" customFormat="1">
       <c r="B98" s="45" t="s">
         <v>91</v>
       </c>
@@ -2360,30 +2669,30 @@
         <v>20000</v>
       </c>
       <c r="E98" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="F98" s="70">
         <v>7</v>
       </c>
       <c r="G98" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
       <c r="H98" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2571.4285714285716</v>
       </c>
       <c r="I98" s="78"/>
       <c r="J98" s="76">
-        <f>H98*K98</f>
+        <f t="shared" si="8"/>
         <v>5142.8571428571431</v>
       </c>
       <c r="K98" s="44">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:14">
       <c r="G99" s="39">
         <f>SUM(G92:G98)</f>
         <v>139000</v>
@@ -2398,9 +2707,9 @@
         <v>230999.99999999997</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:14">
       <c r="F100" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G100" s="88">
         <f>G99*5</f>
@@ -2408,12 +2717,641 @@
       </c>
       <c r="I100" s="40"/>
     </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="35" t="s">
-        <v>101</v>
-      </c>
+    <row r="103" spans="2:14">
+      <c r="B103" s="35"/>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="90"/>
+      <c r="D104" s="90"/>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="B105" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="96"/>
+      <c r="D105" s="93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="94"/>
+      <c r="D106" s="8">
+        <f>D7</f>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14">
+      <c r="B107" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="96"/>
+      <c r="D107" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="94"/>
+      <c r="D108" s="8">
+        <f>SUM(D106/D107)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="96"/>
+      <c r="D109" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="112" spans="2:14">
+      <c r="C112" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="G112" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="H112" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="I112" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="J112" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K112" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="L112" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="M112" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="N112" s="101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="C113" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="E113" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="F113" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="F114" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="G114" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="G115" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="H115" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G116" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="H116" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="I116" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="I117" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="J117" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I118" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="J118" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="K118" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+    </row>
+    <row r="119" spans="2:14">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J119" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="K119" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="L119" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K120" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="L120" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="M120" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="N120" s="8"/>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L121" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="M121" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="N121" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M122" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+      <c r="N122" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N123" s="8">
+        <f>D108</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" ht="15.75" thickBot="1">
+      <c r="C124" s="102"/>
+      <c r="D124" s="102"/>
+      <c r="E124" s="102"/>
+      <c r="F124" s="102"/>
+      <c r="G124" s="102"/>
+      <c r="H124" s="102"/>
+      <c r="I124" s="102"/>
+      <c r="J124" s="102"/>
+      <c r="K124" s="102"/>
+      <c r="L124" s="102"/>
+      <c r="M124" s="102"/>
+      <c r="N124" s="102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" ht="15.75" thickBot="1">
+      <c r="C125" s="103">
+        <f>SUM(C113:C124)</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="104">
+        <f t="shared" ref="D125:N125" si="12">SUM(D113:D124)</f>
+        <v>300000</v>
+      </c>
+      <c r="E125" s="104">
+        <f t="shared" si="12"/>
+        <v>600000</v>
+      </c>
+      <c r="F125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="G125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="H125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="I125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="J125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="K125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="L125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="M125" s="104">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+      <c r="N125" s="105">
+        <f t="shared" si="12"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="128" spans="2:14">
+      <c r="B128" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="107">
+        <f>D11</f>
+        <v>-10140000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="B129" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" s="107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B130" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="107">
+        <f>C128/C129</f>
+        <v>-845000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="133" spans="1:16">
+      <c r="A133" s="90"/>
+      <c r="B133" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="D133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="E133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="F133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="G133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="H133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="I133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="J133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="K133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="L133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="M133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="N133" s="8">
+        <f>C130</f>
+        <v>-845000</v>
+      </c>
+      <c r="O133" s="90"/>
+      <c r="P133" s="90"/>
+    </row>
+    <row r="134" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A134" s="90"/>
+      <c r="B134" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="110">
+        <f>C125+C133</f>
+        <v>-845000</v>
+      </c>
+      <c r="D134" s="110">
+        <f t="shared" ref="D134:F134" si="13">D125+D133</f>
+        <v>-545000</v>
+      </c>
+      <c r="E134" s="110">
+        <f t="shared" si="13"/>
+        <v>-245000</v>
+      </c>
+      <c r="F134" s="110">
+        <f t="shared" si="13"/>
+        <v>55000</v>
+      </c>
+      <c r="G134" s="110">
+        <f t="shared" ref="G134" si="14">G125+G133</f>
+        <v>55000</v>
+      </c>
+      <c r="H134" s="110">
+        <f t="shared" ref="H134" si="15">H125+H133</f>
+        <v>55000</v>
+      </c>
+      <c r="I134" s="110">
+        <f t="shared" ref="I134" si="16">I125+I133</f>
+        <v>55000</v>
+      </c>
+      <c r="J134" s="110">
+        <f t="shared" ref="J134" si="17">J125+J133</f>
+        <v>55000</v>
+      </c>
+      <c r="K134" s="110">
+        <f t="shared" ref="K134" si="18">K125+K133</f>
+        <v>55000</v>
+      </c>
+      <c r="L134" s="110">
+        <f t="shared" ref="L134" si="19">L125+L133</f>
+        <v>55000</v>
+      </c>
+      <c r="M134" s="110">
+        <f t="shared" ref="M134" si="20">M125+M133</f>
+        <v>55000</v>
+      </c>
+      <c r="N134" s="110">
+        <f t="shared" ref="N134" si="21">N125+N133</f>
+        <v>55000</v>
+      </c>
+      <c r="O134" s="90"/>
+      <c r="P134" s="90"/>
+    </row>
+    <row r="135" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A135" s="90"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="90"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="90"/>
+      <c r="H135" s="90"/>
+      <c r="I135" s="90"/>
+      <c r="J135" s="90"/>
+      <c r="K135" s="90"/>
+      <c r="L135" s="90"/>
+      <c r="M135" s="90"/>
+      <c r="N135" s="90"/>
+      <c r="O135" s="90"/>
+      <c r="P135" s="90"/>
+    </row>
+    <row r="136" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A136" s="90"/>
+      <c r="B136" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136" s="112"/>
+      <c r="D136" s="110">
+        <f>MIN(C134:N134)</f>
+        <v>-845000</v>
+      </c>
+      <c r="E136" s="90"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
+      <c r="H136" s="90"/>
+      <c r="I136" s="90"/>
+      <c r="J136" s="90"/>
+      <c r="K136" s="90"/>
+      <c r="L136" s="90"/>
+      <c r="M136" s="90"/>
+      <c r="N136" s="90"/>
+      <c r="O136" s="90"/>
+      <c r="P136" s="90"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="90"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="90"/>
+      <c r="D137" s="90"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="90"/>
+      <c r="G137" s="90"/>
+      <c r="H137" s="90"/>
+      <c r="I137" s="90"/>
+      <c r="J137" s="90"/>
+      <c r="K137" s="90"/>
+      <c r="L137" s="90"/>
+      <c r="M137" s="90"/>
+      <c r="N137" s="90"/>
+      <c r="O137" s="90"/>
+      <c r="P137" s="90"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
